--- a/food_nutrition_small_type_v2.xlsx
+++ b/food_nutrition_small_type_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Shrt_Desc</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>MILK_6</t>
+  </si>
+  <si>
+    <t>EGGNOG_7</t>
+  </si>
+  <si>
+    <t>SOUR DRSNG_7</t>
+  </si>
+  <si>
+    <t>MILK_7</t>
   </si>
 </sst>
 </file>
@@ -682,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +866,7 @@
       </c>
       <c r="W2" s="6">
         <f ca="1">RAND()*10</f>
-        <v>2.7018094709514151</v>
+        <v>1.0109353440821445</v>
       </c>
       <c r="X2" t="s">
         <v>29</v>
@@ -931,8 +940,8 @@
         <v>75</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W26" ca="1" si="0">RAND()*10</f>
-        <v>1.7093152550497093</v>
+        <f t="shared" ref="W3:W29" ca="1" si="0">RAND()*10</f>
+        <v>7.5473766932052762</v>
       </c>
       <c r="X3" t="s">
         <v>30</v>
@@ -1007,7 +1016,7 @@
       </c>
       <c r="W4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2464659900559356</v>
+        <v>3.1257323444934904</v>
       </c>
       <c r="X4" t="s">
         <v>31</v>
@@ -1082,7 +1091,7 @@
       </c>
       <c r="W5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.412274934316593</v>
+        <v>4.2364745796260594E-2</v>
       </c>
       <c r="X5" t="s">
         <v>29</v>
@@ -1148,7 +1157,7 @@
       </c>
       <c r="W6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9383586144497347</v>
+        <v>1.2343618463991302</v>
       </c>
       <c r="X6" t="s">
         <v>30</v>
@@ -1223,7 +1232,7 @@
       </c>
       <c r="W7" s="6">
         <f ca="1">RAND()*10</f>
-        <v>1.7207946948110031</v>
+        <v>7.2535654374562872</v>
       </c>
       <c r="X7" t="s">
         <v>29</v>
@@ -1298,7 +1307,7 @@
       </c>
       <c r="W8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6825045742364129</v>
+        <v>0.58783050830994332</v>
       </c>
       <c r="X8" t="s">
         <v>30</v>
@@ -1373,7 +1382,7 @@
       </c>
       <c r="W9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8860941103285711</v>
+        <v>6.7879202936055139</v>
       </c>
       <c r="X9" t="s">
         <v>31</v>
@@ -1448,7 +1457,7 @@
       </c>
       <c r="W10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5157966096954532</v>
+        <v>7.2127887050114756</v>
       </c>
       <c r="X10" t="s">
         <v>29</v>
@@ -1514,7 +1523,7 @@
       </c>
       <c r="W11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9474194920614423</v>
+        <v>9.4034840527258243</v>
       </c>
       <c r="X11" t="s">
         <v>30</v>
@@ -1589,7 +1598,7 @@
       </c>
       <c r="W12" s="6">
         <f ca="1">RAND()*10</f>
-        <v>5.6903272244384473</v>
+        <v>9.6629597274243757</v>
       </c>
       <c r="X12" t="s">
         <v>29</v>
@@ -1664,7 +1673,7 @@
       </c>
       <c r="W13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96173367379445707</v>
+        <v>0.71337387216991677</v>
       </c>
       <c r="X13" t="s">
         <v>30</v>
@@ -1739,7 +1748,7 @@
       </c>
       <c r="W14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2413643091522033</v>
+        <v>4.2895928244826589</v>
       </c>
       <c r="X14" t="s">
         <v>31</v>
@@ -1814,7 +1823,7 @@
       </c>
       <c r="W15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92216933637835119</v>
+        <v>6.9578486908271344</v>
       </c>
       <c r="X15" t="s">
         <v>29</v>
@@ -1880,7 +1889,7 @@
       </c>
       <c r="W16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9324651362815715</v>
+        <v>4.3417952017272636</v>
       </c>
       <c r="X16" t="s">
         <v>30</v>
@@ -1955,7 +1964,7 @@
       </c>
       <c r="W17" s="6">
         <f ca="1">RAND()*10</f>
-        <v>4.880739575113239</v>
+        <v>3.3649493716913117</v>
       </c>
       <c r="X17" t="s">
         <v>29</v>
@@ -2030,7 +2039,7 @@
       </c>
       <c r="W18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8467957155157111</v>
+        <v>9.0454497589387088</v>
       </c>
       <c r="X18" t="s">
         <v>30</v>
@@ -2105,7 +2114,7 @@
       </c>
       <c r="W19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7717478844656043</v>
+        <v>6.7150091855280127</v>
       </c>
       <c r="X19" t="s">
         <v>31</v>
@@ -2180,7 +2189,7 @@
       </c>
       <c r="W20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4739566588439743</v>
+        <v>3.5774140742091056</v>
       </c>
       <c r="X20" t="s">
         <v>29</v>
@@ -2246,7 +2255,7 @@
       </c>
       <c r="W21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0782178426940394</v>
+        <v>1.2619490877662365</v>
       </c>
       <c r="X21" t="s">
         <v>30</v>
@@ -2321,7 +2330,7 @@
       </c>
       <c r="W22" s="6">
         <f ca="1">RAND()*10</f>
-        <v>0.14447807285860259</v>
+        <v>0.68828197330764063</v>
       </c>
       <c r="X22" t="s">
         <v>29</v>
@@ -2396,7 +2405,7 @@
       </c>
       <c r="W23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0821480276517237</v>
+        <v>3.1511466812944988</v>
       </c>
       <c r="X23" t="s">
         <v>30</v>
@@ -2471,7 +2480,7 @@
       </c>
       <c r="W24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6920826722354603</v>
+        <v>6.3486321779261239</v>
       </c>
       <c r="X24" t="s">
         <v>31</v>
@@ -2546,7 +2555,7 @@
       </c>
       <c r="W25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1533413874482346</v>
+        <v>5.865020828813269</v>
       </c>
       <c r="X25" t="s">
         <v>29</v>
@@ -2612,9 +2621,225 @@
       </c>
       <c r="W26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3750802374605513</v>
+        <v>2.2693314557344815</v>
       </c>
       <c r="X26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="3">
+        <v>82.54</v>
+      </c>
+      <c r="C27" s="4">
+        <v>88</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I27" s="4">
+        <v>130</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K27" s="3">
+        <v>19</v>
+      </c>
+      <c r="L27" s="4">
+        <v>109</v>
+      </c>
+      <c r="M27" s="4">
+        <v>165</v>
+      </c>
+      <c r="N27" s="4">
+        <v>54</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="V27" s="4">
+        <v>59</v>
+      </c>
+      <c r="W27" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3635016262642594</v>
+      </c>
+      <c r="X27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="C28" s="4">
+        <v>178</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E28" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.68</v>
+      </c>
+      <c r="I28" s="4">
+        <v>113</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K28" s="3">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4">
+        <v>87</v>
+      </c>
+      <c r="M28" s="4">
+        <v>162</v>
+      </c>
+      <c r="N28" s="4">
+        <v>48</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R28" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="4">
+        <v>5</v>
+      </c>
+      <c r="W28" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30488702640333987</v>
+      </c>
+      <c r="X28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>87.67</v>
+      </c>
+      <c r="C29" s="4">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3.33</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3.46</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4.74</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>128</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K29" s="3">
+        <v>13</v>
+      </c>
+      <c r="L29" s="4">
+        <v>97</v>
+      </c>
+      <c r="M29" s="4">
+        <v>139</v>
+      </c>
+      <c r="N29" s="4">
+        <v>57</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="V29" s="4">
+        <v>2</v>
+      </c>
+      <c r="W29" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.0018068621533511</v>
+      </c>
+      <c r="X29" t="s">
         <v>30</v>
       </c>
     </row>
